--- a/biology/Botanique/Henri_de_Boissieu/Henri_de_Boissieu.xlsx
+++ b/biology/Botanique/Henri_de_Boissieu/Henri_de_Boissieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri de Boissieu, né en 1871 à Paris et mort en 1912 à Tenay, est un botaniste français. Il étudie à l'École d'Études Avancée de Paris.
-Il est mort pendant une excursion botanique dans l'Ain[1].
+Il est mort pendant une excursion botanique dans l'Ain.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1896. Contribution à la connaissance du littoral saharien
 1897. Les éricacées du Japon d'après les collections M. l'abbé Faurie
@@ -552,7 +566,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rue Henri de Boissieu, Bourg-en-Bresse, la France</t>
         </is>
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Henri de Boissieu (1871-1912) », sur data.bnf.fr (consulté le 31 mai 2023)
